--- a/Testing Document Template.xlsx
+++ b/Testing Document Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Restaurant-Management-Group-Project-develop\Restaurant-Management-Group-Project-develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cong_nghe_phan_mem\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E4C51A-91A9-400D-9E20-22A894EFCD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53C212-8BAF-4EBC-99AC-56FEE6EC8332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="2724" windowWidth="17280" windowHeight="8880" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -823,21 +823,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="39" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="29.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -922,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -939,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -973,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -990,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>

--- a/Testing Document Template.xlsx
+++ b/Testing Document Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Restaurant-Management-Group-Project-develop\Restaurant-Management-Group-Project-develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cong_nghe_phan_mem\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10848FB9-7ACD-4F9E-85B1-447FE5EECA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47802A-A45E-40F5-9324-2D91F4F442C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="143">
   <si>
     <t>Test Steps</t>
   </si>
@@ -598,12 +598,24 @@
     <t>CRITICAL BUG: Application crashes/terminates.
 Error: std::logic_error: Only READY order can be marked COMPLETED.</t>
   </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>1. From Order Detail (Status: ANY)
+2. Select [X] Cancel order
+3. Confirm y</t>
+  </si>
+  <si>
+    <t>System Updates Status to cancelled
+Screen refreshes showing "Status:cancelled".</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +634,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -987,23 +1005,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="83" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="39" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="29.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1122,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1360,7 +1378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1394,7 +1412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -1649,7 +1667,25 @@
         <v>139</v>
       </c>
     </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
